--- a/docs/allnew_reformat.xlsx
+++ b/docs/allnew_reformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4fd68a0db62bd3e/Documents/GitHub/ValueLine/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{FB5D8B84-AFA8-43DE-B750-98A11CFF2D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F368F506-70B3-49D4-927B-B21FC96D206E}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{FB5D8B84-AFA8-43DE-B750-98A11CFF2D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D524788-423D-4DEF-BACB-46069800A6A6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{0616BBF4-0CB2-44CB-8018-C009F440B822}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t xml:space="preserve">Company             </t>
   </si>
@@ -190,6 +190,75 @@
   </si>
   <si>
     <t>ALLNEW</t>
+  </si>
+  <si>
+    <t>TOP200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV.D               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.vCM               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.P                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record.Number       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid.oprk            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask.oprk            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid.UN.OV           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask.UN.OV           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X10.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.10.               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCPWPT              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCPWMX              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.OTM               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bid.Implied         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask.Implied         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrtbStrk.VOLF       </t>
+  </si>
+  <si>
+    <t>Bid.PrtbStrk.Implied</t>
+  </si>
+  <si>
+    <t>Ask.PrtbStrk.Implied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yld.Margin          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max.Margin          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROWRT               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X07.09.2021         </t>
   </si>
 </sst>
 </file>
@@ -251,12 +320,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,452 +649,797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F57ACD-E78C-4809-8CB6-7B85CEA5A366}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>IF(B2=C2,  "TRUE", "FALSE")</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D55" si="0">IF(B3=C3,  "TRUE", "FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
       </c>
     </row>
   </sheetData>
